--- a/admin/penduduk/template_import_penduduk.xlsx
+++ b/admin/penduduk/template_import_penduduk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fardan PC\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aplikasi-surat-web\admin\penduduk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,18 +42,12 @@
     <t>Jalan</t>
   </si>
   <si>
-    <t>Dusun</t>
-  </si>
-  <si>
     <t>RT</t>
   </si>
   <si>
     <t>RW</t>
   </si>
   <si>
-    <t>Desa</t>
-  </si>
-  <si>
     <t>Kecamatan</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>Linkungan / Dusun</t>
+  </si>
+  <si>
+    <t>Kel / Desa</t>
   </si>
 </sst>
 </file>
@@ -453,22 +453,21 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -506,52 +505,52 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
